--- a/data/学生论文题目.xlsx
+++ b/data/学生论文题目.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\58423\Desktop\Knowledge\ThesisReviewSystem\ThesisReview\ThesisReview\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156CC5FB-45F8-4521-A460-6C19F30F014A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -340,15 +346,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="000000"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,13 +362,13 @@
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -378,7 +380,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -392,7 +394,7 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -411,154 +413,16 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,198 +437,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149845881527146"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14981536301767021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -785,275 +463,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1068,97 +504,166 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1169,7 +674,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1197,154 +702,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1594,31 +985,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CQ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="18" max="18" width="17.625" customWidth="1"/>
-    <col min="19" max="19" width="14.25" customWidth="1"/>
-    <col min="21" max="21" width="37.5" customWidth="1"/>
-    <col min="22" max="22" width="28.125" customWidth="1"/>
-    <col min="23" max="23" width="24.25" customWidth="1"/>
-    <col min="25" max="25" width="43.25" customWidth="1"/>
-    <col min="26" max="26" width="31.5" customWidth="1"/>
-    <col min="27" max="27" width="48.125" customWidth="1"/>
+    <col min="18" max="18" width="17.6328125" customWidth="1"/>
+    <col min="19" max="19" width="14.26953125" customWidth="1"/>
+    <col min="21" max="21" width="37.453125" customWidth="1"/>
+    <col min="22" max="22" width="28.08984375" customWidth="1"/>
+    <col min="23" max="23" width="24.26953125" customWidth="1"/>
+    <col min="25" max="25" width="43.26953125" customWidth="1"/>
+    <col min="26" max="26" width="31.453125" customWidth="1"/>
+    <col min="27" max="27" width="48.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="34.5" customHeight="1" spans="1:32">
+    <row r="1" spans="1:95" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1716,7 +1108,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="2" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
@@ -1787,9 +1179,6 @@
       <c r="X2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
       <c r="AB2" s="2" t="s">
         <v>49</v>
       </c>
@@ -1869,7 +1258,7 @@
       <c r="CP2" s="5"/>
       <c r="CQ2" s="5"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="3" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -1940,9 +1329,6 @@
       <c r="X3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
       <c r="AB3" s="2" t="s">
         <v>49</v>
       </c>
@@ -2022,7 +1408,7 @@
       <c r="CP3" s="5"/>
       <c r="CQ3" s="5"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="4" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -2093,9 +1479,6 @@
       <c r="X4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
       <c r="AB4" s="2" t="s">
         <v>49</v>
       </c>
@@ -2175,7 +1558,7 @@
       <c r="CP4" s="5"/>
       <c r="CQ4" s="5"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="5" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -2246,9 +1629,6 @@
       <c r="X5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
       <c r="AB5" s="2" t="s">
         <v>49</v>
       </c>
@@ -2328,7 +1708,7 @@
       <c r="CP5" s="5"/>
       <c r="CQ5" s="5"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="6" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
@@ -2399,9 +1779,6 @@
       <c r="X6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
       <c r="AB6" s="2" t="s">
         <v>49</v>
       </c>
@@ -2481,7 +1858,7 @@
       <c r="CP6" s="5"/>
       <c r="CQ6" s="5"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="7" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -2552,9 +1929,6 @@
       <c r="X7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
       <c r="AB7" s="2" t="s">
         <v>49</v>
       </c>
@@ -2634,7 +2008,7 @@
       <c r="CP7" s="5"/>
       <c r="CQ7" s="5"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="8" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -2705,9 +2079,6 @@
       <c r="X8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
       <c r="AB8" s="2" t="s">
         <v>49</v>
       </c>
@@ -2787,7 +2158,7 @@
       <c r="CP8" s="5"/>
       <c r="CQ8" s="5"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="9" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
@@ -2858,9 +2229,6 @@
       <c r="X9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
       <c r="AB9" s="2" t="s">
         <v>49</v>
       </c>
@@ -2940,7 +2308,7 @@
       <c r="CP9" s="5"/>
       <c r="CQ9" s="5"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="10" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2965,10 +2333,6 @@
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="14"/>
       <c r="AE10" s="15"/>
@@ -3037,7 +2401,7 @@
       <c r="CP10" s="5"/>
       <c r="CQ10" s="5"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="11" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -3062,10 +2426,6 @@
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
       <c r="AC11" s="13"/>
       <c r="AD11" s="14"/>
       <c r="AE11" s="15"/>
@@ -3134,7 +2494,7 @@
       <c r="CP11" s="5"/>
       <c r="CQ11" s="5"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="12" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -3159,10 +2519,6 @@
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
       <c r="AC12" s="13"/>
       <c r="AD12" s="14"/>
       <c r="AE12" s="15"/>
@@ -3231,7 +2587,7 @@
       <c r="CP12" s="5"/>
       <c r="CQ12" s="5"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="13" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -3256,10 +2612,6 @@
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
       <c r="AC13" s="13"/>
       <c r="AD13" s="14"/>
       <c r="AE13" s="15"/>
@@ -3328,7 +2680,7 @@
       <c r="CP13" s="5"/>
       <c r="CQ13" s="5"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="14" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -3353,10 +2705,6 @@
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
       <c r="AC14" s="13"/>
       <c r="AD14" s="14"/>
       <c r="AE14" s="15"/>
@@ -3425,7 +2773,7 @@
       <c r="CP14" s="5"/>
       <c r="CQ14" s="5"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="15" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -3450,10 +2798,6 @@
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
       <c r="AC15" s="13"/>
       <c r="AD15" s="14"/>
       <c r="AE15" s="15"/>
@@ -3522,7 +2866,7 @@
       <c r="CP15" s="5"/>
       <c r="CQ15" s="5"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="16" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -3547,10 +2891,6 @@
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
       <c r="AC16" s="13"/>
       <c r="AD16" s="14"/>
       <c r="AE16" s="15"/>
@@ -3619,7 +2959,7 @@
       <c r="CP16" s="5"/>
       <c r="CQ16" s="5"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="17" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -3644,10 +2984,6 @@
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
       <c r="AC17" s="13"/>
       <c r="AD17" s="14"/>
       <c r="AE17" s="15"/>
@@ -3716,7 +3052,7 @@
       <c r="CP17" s="5"/>
       <c r="CQ17" s="5"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="18" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -3741,10 +3077,6 @@
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
       <c r="AC18" s="13"/>
       <c r="AD18" s="14"/>
       <c r="AE18" s="15"/>
@@ -3813,7 +3145,7 @@
       <c r="CP18" s="5"/>
       <c r="CQ18" s="5"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="19" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -3838,10 +3170,6 @@
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
       <c r="AC19" s="13"/>
       <c r="AD19" s="14"/>
       <c r="AE19" s="15"/>
@@ -3910,7 +3238,7 @@
       <c r="CP19" s="5"/>
       <c r="CQ19" s="5"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="20" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -3935,10 +3263,6 @@
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
       <c r="AC20" s="13"/>
       <c r="AD20" s="14"/>
       <c r="AE20" s="15"/>
@@ -4007,7 +3331,7 @@
       <c r="CP20" s="5"/>
       <c r="CQ20" s="5"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="21" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -4032,10 +3356,6 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
       <c r="AC21" s="13"/>
       <c r="AD21" s="14"/>
       <c r="AE21" s="15"/>
@@ -4104,7 +3424,7 @@
       <c r="CP21" s="5"/>
       <c r="CQ21" s="5"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="22" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -4129,10 +3449,6 @@
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
       <c r="AC22" s="13"/>
       <c r="AD22" s="14"/>
       <c r="AE22" s="15"/>
@@ -4201,7 +3517,7 @@
       <c r="CP22" s="5"/>
       <c r="CQ22" s="5"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="23" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -4226,10 +3542,6 @@
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
       <c r="AC23" s="13"/>
       <c r="AD23" s="14"/>
       <c r="AE23" s="15"/>
@@ -4298,7 +3610,7 @@
       <c r="CP23" s="5"/>
       <c r="CQ23" s="5"/>
     </row>
-    <row r="24" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="24" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -4323,10 +3635,6 @@
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
       <c r="AC24" s="13"/>
       <c r="AD24" s="14"/>
       <c r="AE24" s="15"/>
@@ -4395,7 +3703,7 @@
       <c r="CP24" s="5"/>
       <c r="CQ24" s="5"/>
     </row>
-    <row r="25" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="25" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -4420,10 +3728,6 @@
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
       <c r="AC25" s="13"/>
       <c r="AD25" s="14"/>
       <c r="AE25" s="15"/>
@@ -4492,7 +3796,7 @@
       <c r="CP25" s="5"/>
       <c r="CQ25" s="5"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="26" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -4517,10 +3821,6 @@
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
       <c r="AC26" s="13"/>
       <c r="AD26" s="14"/>
       <c r="AE26" s="15"/>
@@ -4589,7 +3889,7 @@
       <c r="CP26" s="5"/>
       <c r="CQ26" s="5"/>
     </row>
-    <row r="27" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="27" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -4614,10 +3914,6 @@
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
       <c r="AC27" s="13"/>
       <c r="AD27" s="14"/>
       <c r="AE27" s="15"/>
@@ -4686,7 +3982,7 @@
       <c r="CP27" s="5"/>
       <c r="CQ27" s="5"/>
     </row>
-    <row r="28" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="28" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -4711,10 +4007,6 @@
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
       <c r="AC28" s="13"/>
       <c r="AD28" s="14"/>
       <c r="AE28" s="15"/>
@@ -4783,7 +4075,7 @@
       <c r="CP28" s="5"/>
       <c r="CQ28" s="5"/>
     </row>
-    <row r="29" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="29" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -4808,10 +4100,6 @@
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
       <c r="AC29" s="13"/>
       <c r="AD29" s="14"/>
       <c r="AE29" s="15"/>
@@ -4880,7 +4168,7 @@
       <c r="CP29" s="5"/>
       <c r="CQ29" s="5"/>
     </row>
-    <row r="30" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="30" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -4905,10 +4193,6 @@
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
       <c r="AC30" s="13"/>
       <c r="AD30" s="14"/>
       <c r="AE30" s="15"/>
@@ -4977,7 +4261,7 @@
       <c r="CP30" s="5"/>
       <c r="CQ30" s="5"/>
     </row>
-    <row r="31" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="31" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -5002,10 +4286,6 @@
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
       <c r="AC31" s="13"/>
       <c r="AD31" s="14"/>
       <c r="AE31" s="15"/>
@@ -5074,7 +4354,7 @@
       <c r="CP31" s="5"/>
       <c r="CQ31" s="5"/>
     </row>
-    <row r="32" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="32" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -5099,10 +4379,6 @@
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
       <c r="AC32" s="13"/>
       <c r="AD32" s="14"/>
       <c r="AE32" s="15"/>
@@ -5171,7 +4447,7 @@
       <c r="CP32" s="5"/>
       <c r="CQ32" s="5"/>
     </row>
-    <row r="33" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="33" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -5196,10 +4472,6 @@
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
       <c r="AC33" s="13"/>
       <c r="AD33" s="14"/>
       <c r="AE33" s="15"/>
@@ -5268,7 +4540,7 @@
       <c r="CP33" s="5"/>
       <c r="CQ33" s="5"/>
     </row>
-    <row r="34" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="34" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -5293,10 +4565,6 @@
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
       <c r="AC34" s="13"/>
       <c r="AD34" s="14"/>
       <c r="AE34" s="15"/>
@@ -5365,7 +4633,7 @@
       <c r="CP34" s="5"/>
       <c r="CQ34" s="5"/>
     </row>
-    <row r="35" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="35" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -5390,10 +4658,6 @@
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
       <c r="AC35" s="13"/>
       <c r="AD35" s="14"/>
       <c r="AE35" s="15"/>
@@ -5462,7 +4726,7 @@
       <c r="CP35" s="5"/>
       <c r="CQ35" s="5"/>
     </row>
-    <row r="36" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="36" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -5487,10 +4751,6 @@
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
       <c r="AC36" s="13"/>
       <c r="AD36" s="14"/>
       <c r="AE36" s="15"/>
@@ -5559,7 +4819,7 @@
       <c r="CP36" s="5"/>
       <c r="CQ36" s="5"/>
     </row>
-    <row r="37" s="2" customFormat="1" ht="12.75" spans="1:95">
+    <row r="37" spans="1:95" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -5584,10 +4844,6 @@
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
       <c r="AC37" s="13"/>
       <c r="AD37" s="14"/>
       <c r="AE37" s="15"/>
@@ -5657,10 +4913,10 @@
       <c r="CQ37" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="W1:W37"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="W1:W37" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>